--- a/Data_Files/CSV_Files/QUTO_byisland_genalex.xlsx
+++ b/Data_Files/CSV_Files/QUTO_byisland_genalex.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eschumacher\Documents\GitHub\Ten_Oaks\Data_Files\CSV_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21967493-46E7-4663-9896-16E29DC692D7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F902699-84CA-4A9B-918A-9A4CC609694A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1204,7 +1204,7 @@
       <pane xSplit="10" ySplit="20" topLeftCell="K21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
-      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
